--- a/js/earhart-fellows/Proofreading details.xlsx
+++ b/js/earhart-fellows/Proofreading details.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Recorded as</t>
   </si>
@@ -41,7 +41,13 @@
     <t>Entry Name</t>
   </si>
   <si>
-    <t>+</t>
+    <t xml:space="preserve"> .edu</t>
+  </si>
+  <si>
+    <t>BAYLOR, Christopher A.</t>
+  </si>
+  <si>
+    <t>.edu</t>
   </si>
 </sst>
 </file>
@@ -399,14 +405,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -433,6 +439,15 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/js/earhart-fellows/Proofreading details.xlsx
+++ b/js/earhart-fellows/Proofreading details.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Markus\Desktop\GIT\data-science-practice\js\earhart-fellows\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{0039DD33-839F-43FD-B420-75CA68370924}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Errors" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Recorded as</t>
   </si>
@@ -48,19 +43,185 @@
   </si>
   <si>
     <t>.edu</t>
+  </si>
+  <si>
+    <t>becknaann</t>
+  </si>
+  <si>
+    <t>beckmann</t>
+  </si>
+  <si>
+    <t>BECKMANN, Heino A. P.</t>
+  </si>
+  <si>
+    <t>be119</t>
+  </si>
+  <si>
+    <t>bell9</t>
+  </si>
+  <si>
+    <t>BELL, Stephen H.</t>
+  </si>
+  <si>
+    <t>be1114</t>
+  </si>
+  <si>
+    <t>bell14</t>
+  </si>
+  <si>
+    <t>CAMPBELL, William F.</t>
+  </si>
+  <si>
+    <t>dbellantousf.edu</t>
+  </si>
+  <si>
+    <t>dbellant@usf.edu</t>
+  </si>
+  <si>
+    <t>BELLANTE, Donald M.</t>
+  </si>
+  <si>
+    <t>pbemstein</t>
+  </si>
+  <si>
+    <t>pbernstein</t>
+  </si>
+  <si>
+    <t>BERNSTEIN, Peter D.</t>
+  </si>
+  <si>
+    <t>gbia1ka</t>
+  </si>
+  <si>
+    <t>gbialka</t>
+  </si>
+  <si>
+    <t>BIALKA, Gerald</t>
+  </si>
+  <si>
+    <t>rona1d</t>
+  </si>
+  <si>
+    <t>ronald</t>
+  </si>
+  <si>
+    <t>FRANK, Ronald E.</t>
+  </si>
+  <si>
+    <t>ncsr.com</t>
+  </si>
+  <si>
+    <t>nc.rr.com</t>
+  </si>
+  <si>
+    <t>BICKER, William E.</t>
+  </si>
+  <si>
+    <t>jeffbiddle</t>
+  </si>
+  <si>
+    <t>jeff.biddle</t>
+  </si>
+  <si>
+    <t>BIDDLE, Jeff E.</t>
+  </si>
+  <si>
+    <t>BORKNIAN</t>
+  </si>
+  <si>
+    <t>BORKMAN</t>
+  </si>
+  <si>
+    <t>BORKMAN, Kurt J.</t>
+  </si>
+  <si>
+    <t>clarkusal</t>
+  </si>
+  <si>
+    <t>clarkusa1</t>
+  </si>
+  <si>
+    <t>BOWERS, Clark R.</t>
+  </si>
+  <si>
+    <t>jbrand1</t>
+  </si>
+  <si>
+    <t>jbrandl</t>
+  </si>
+  <si>
+    <t>BRANDL, John Edward</t>
+  </si>
+  <si>
+    <t>spacedustlg</t>
+  </si>
+  <si>
+    <t>spacedust1</t>
+  </si>
+  <si>
+    <t>BRIDGE, Arthur V.</t>
+  </si>
+  <si>
+    <t>Franldyn</t>
+  </si>
+  <si>
+    <t>Franklyn</t>
+  </si>
+  <si>
+    <t>BROUDE, Franklyn</t>
+  </si>
+  <si>
+    <t>cburketl</t>
+  </si>
+  <si>
+    <t>cburket1</t>
+  </si>
+  <si>
+    <t>BURKETT, Christopher C.</t>
+  </si>
+  <si>
+    <t>bums</t>
+  </si>
+  <si>
+    <t>burns</t>
+  </si>
+  <si>
+    <t>BURNS, Sarah M.</t>
+  </si>
+  <si>
+    <t>riz</t>
+  </si>
+  <si>
+    <t>rit</t>
+  </si>
+  <si>
+    <t>Berth</t>
+  </si>
+  <si>
+    <t>Bertis</t>
+  </si>
+  <si>
+    <t>CALKINS, Richard Bertis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,16 +241,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -148,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -200,7 +367,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -394,35 +561,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ED1F7C-D9FF-4FEC-8888-68AC4BF5A854}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -436,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -448,12 +615,267 @@
       </c>
       <c r="D3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/js/earhart-fellows/Proofreading details.xlsx
+++ b/js/earhart-fellows/Proofreading details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="190">
   <si>
     <t>Recorded as</t>
   </si>
@@ -202,6 +202,393 @@
   </si>
   <si>
     <t>CALKINS, Richard Bertis</t>
+  </si>
+  <si>
+    <t>CANTVVELL</t>
+  </si>
+  <si>
+    <t>CANTWELL</t>
+  </si>
+  <si>
+    <t>CANTWELL, Jack Q. W.</t>
+  </si>
+  <si>
+    <t>camey</t>
+  </si>
+  <si>
+    <t>carney</t>
+  </si>
+  <si>
+    <t>CARNEY, Brian M.</t>
+  </si>
+  <si>
+    <t>gerrybill 1 21995</t>
+  </si>
+  <si>
+    <t>gerrybill121995</t>
+  </si>
+  <si>
+    <t>CARTER, Phillip L.</t>
+  </si>
+  <si>
+    <t>escassklmaple</t>
+  </si>
+  <si>
+    <t>escassk1maple</t>
+  </si>
+  <si>
+    <t>CASS, Kelsey R.</t>
+  </si>
+  <si>
+    <t>Varadaraj an</t>
+  </si>
+  <si>
+    <t>Varadarajan</t>
+  </si>
+  <si>
+    <t>CHARI, Varadarajan V.</t>
+  </si>
+  <si>
+    <t>CHAVFS</t>
+  </si>
+  <si>
+    <t>CHAVES</t>
+  </si>
+  <si>
+    <t>CHAVES-JIMENEZ, Augstin</t>
+  </si>
+  <si>
+    <t>worldnetatt</t>
+  </si>
+  <si>
+    <t>worldnet.att</t>
+  </si>
+  <si>
+    <t>CHESSER, David E.</t>
+  </si>
+  <si>
+    <t>Siwanne</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
+    <t>CHOD (GOLD), Suzanne M.</t>
+  </si>
+  <si>
+    <t>mclaarl</t>
+  </si>
+  <si>
+    <t>mclaar1</t>
+  </si>
+  <si>
+    <t>CLAAR, Martin</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>CONLON, John R.</t>
+  </si>
+  <si>
+    <t>R.</t>
+  </si>
+  <si>
+    <t>frankkie14</t>
+  </si>
+  <si>
+    <t>frankkiel4</t>
+  </si>
+  <si>
+    <t>CONRAD, Chandler P.</t>
+  </si>
+  <si>
+    <t>Monaca</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>COOPER, Monika</t>
+  </si>
+  <si>
+    <t>CORIVEJO</t>
+  </si>
+  <si>
+    <t>CORNEJO</t>
+  </si>
+  <si>
+    <t>CORNEJO, Felipe</t>
+  </si>
+  <si>
+    <t>F1izabeth</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>CROCKER, Elizabeth T.</t>
+  </si>
+  <si>
+    <t>GULP</t>
+  </si>
+  <si>
+    <t>CULP</t>
+  </si>
+  <si>
+    <t>CULP, William H.</t>
+  </si>
+  <si>
+    <t>11c</t>
+  </si>
+  <si>
+    <t>llc</t>
+  </si>
+  <si>
+    <t>CURRY, Dean C.</t>
+  </si>
+  <si>
+    <t>hotmai1</t>
+  </si>
+  <si>
+    <t>hotmail</t>
+  </si>
+  <si>
+    <t>DAJANI, Munther S.</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>JR.</t>
+  </si>
+  <si>
+    <t>DEVANNY JR., John F.</t>
+  </si>
+  <si>
+    <t>DHANNI</t>
+  </si>
+  <si>
+    <t>DIIANNI</t>
+  </si>
+  <si>
+    <t>DIANNI, Isaac R.</t>
+  </si>
+  <si>
+    <t>DHULIO</t>
+  </si>
+  <si>
+    <t>DIIULIO</t>
+  </si>
+  <si>
+    <t>DIIULIO JR., John J.</t>
+  </si>
+  <si>
+    <t>russeldimond</t>
+  </si>
+  <si>
+    <t>russell.dimond</t>
+  </si>
+  <si>
+    <t>DIMOND, Russell L.</t>
+  </si>
+  <si>
+    <t>DISALVO, Daniel R.</t>
+  </si>
+  <si>
+    <t>DURNFORD, Ronald R.</t>
+  </si>
+  <si>
+    <t>HAWTHORNE, Michael R.</t>
+  </si>
+  <si>
+    <t>KEHOE, Michael R.</t>
+  </si>
+  <si>
+    <t>LAEHN, Thomas R.</t>
+  </si>
+  <si>
+    <t>northwestem</t>
+  </si>
+  <si>
+    <t>northwestern</t>
+  </si>
+  <si>
+    <t>DYE, Ronald A.</t>
+  </si>
+  <si>
+    <t>thinldt</t>
+  </si>
+  <si>
+    <t>thinkit</t>
+  </si>
+  <si>
+    <t>EALY, Lenore T.</t>
+  </si>
+  <si>
+    <t>peteteckstein</t>
+  </si>
+  <si>
+    <t>peter.eckstein</t>
+  </si>
+  <si>
+    <t>ECKSTEIN, Peter Charles</t>
+  </si>
+  <si>
+    <t>Manforcl</t>
+  </si>
+  <si>
+    <t>Manford</t>
+  </si>
+  <si>
+    <t>EDMONDS, Dwight Manford</t>
+  </si>
+  <si>
+    <t>b1s</t>
+  </si>
+  <si>
+    <t>bls</t>
+  </si>
+  <si>
+    <t>ERICKSON, Timothy S.</t>
+  </si>
+  <si>
+    <t>eerleteje</t>
+  </si>
+  <si>
+    <t>eerler.eje</t>
+  </si>
+  <si>
+    <t>ERLER, Edward J.</t>
+  </si>
+  <si>
+    <t>cotn</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>EVANS, Ian</t>
+  </si>
+  <si>
+    <t>sfarnerll</t>
+  </si>
+  <si>
+    <t>sfarner11</t>
+  </si>
+  <si>
+    <t>FARBER, Stephen C.</t>
+  </si>
+  <si>
+    <t>farrenkog</t>
+  </si>
+  <si>
+    <t>farrenkopfj</t>
+  </si>
+  <si>
+    <t>FARRENKOPF, John</t>
+  </si>
+  <si>
+    <t>dfinlayl</t>
+  </si>
+  <si>
+    <t>dfinlay1</t>
+  </si>
+  <si>
+    <t>FINLAY, David J.</t>
+  </si>
+  <si>
+    <t>deug12</t>
+  </si>
+  <si>
+    <t>deugl2</t>
+  </si>
+  <si>
+    <t>FOLSOM, James Mack</t>
+  </si>
+  <si>
+    <t>lyncaro19</t>
+  </si>
+  <si>
+    <t>lyncarol9</t>
+  </si>
+  <si>
+    <t>FOST, Carolyn A.</t>
+  </si>
+  <si>
+    <t>tennisistl</t>
+  </si>
+  <si>
+    <t>tennisist1</t>
+  </si>
+  <si>
+    <t>FOURT, Peter M.</t>
+  </si>
+  <si>
+    <t>develand</t>
+  </si>
+  <si>
+    <t>cleveland</t>
+  </si>
+  <si>
+    <t>FRASER, Cleveland Robert</t>
+  </si>
+  <si>
+    <t>difffrasier</t>
+  </si>
+  <si>
+    <t>cliff.frasier</t>
+  </si>
+  <si>
+    <t>FRASIER, Clifford W.</t>
+  </si>
+  <si>
+    <t>FREEHLLL</t>
+  </si>
+  <si>
+    <t>FREEHILL</t>
+  </si>
+  <si>
+    <t>FREEHILL, Gunther</t>
+  </si>
+  <si>
+    <t>rfryl</t>
+  </si>
+  <si>
+    <t>rfry1</t>
+  </si>
+  <si>
+    <t>FRY, Richard A.</t>
+  </si>
+  <si>
+    <t>CAIS</t>
+  </si>
+  <si>
+    <t>GAIS</t>
+  </si>
+  <si>
+    <t>GAIS, Thomas Lewis</t>
+  </si>
+  <si>
+    <t>Lewii</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>rocIdnst</t>
+  </si>
+  <si>
+    <t>rockinst</t>
+  </si>
+  <si>
+    <t>ggathrightl</t>
+  </si>
+  <si>
+    <t>ggathright1</t>
+  </si>
+  <si>
+    <t>GATHRIGHT, Graton M. R.</t>
   </si>
 </sst>
 </file>
@@ -250,10 +637,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,7 +948,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,25 +956,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
@@ -663,7 +1050,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7">
@@ -867,6 +1254,664 @@
       </c>
       <c r="D21" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38">
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42">
+        <v>95</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45">
+        <v>159</v>
+      </c>
+      <c r="D45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46">
+        <v>188</v>
+      </c>
+      <c r="D46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47">
+        <v>203</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48">
+        <v>102</v>
+      </c>
+      <c r="D48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50">
+        <v>104</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51">
+        <v>105</v>
+      </c>
+      <c r="D51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53">
+        <v>111</v>
+      </c>
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54">
+        <v>113</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56">
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57">
+        <v>118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58">
+        <v>121</v>
+      </c>
+      <c r="D58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59">
+        <v>123</v>
+      </c>
+      <c r="D59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60">
+        <v>123</v>
+      </c>
+      <c r="D60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61">
+        <v>124</v>
+      </c>
+      <c r="D61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62">
+        <v>125</v>
+      </c>
+      <c r="D62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63">
+        <v>125</v>
+      </c>
+      <c r="D63" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64">
+        <v>126</v>
+      </c>
+      <c r="D64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65">
+        <v>127</v>
+      </c>
+      <c r="D65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66">
+        <v>127</v>
+      </c>
+      <c r="D66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67">
+        <v>127</v>
+      </c>
+      <c r="D67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68">
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/js/earhart-fellows/Proofreading details.xlsx
+++ b/js/earhart-fellows/Proofreading details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="363">
   <si>
     <t>Recorded as</t>
   </si>
@@ -589,6 +589,527 @@
   </si>
   <si>
     <t>GATHRIGHT, Graton M. R.</t>
+  </si>
+  <si>
+    <t>agilletl</t>
+  </si>
+  <si>
+    <t>agillet1</t>
+  </si>
+  <si>
+    <t>GILLETTE, Ann B.</t>
+  </si>
+  <si>
+    <t>rgkl</t>
+  </si>
+  <si>
+    <t>rgk1</t>
+  </si>
+  <si>
+    <t>GILLETT-KARAM (KARAM), Rosemary</t>
+  </si>
+  <si>
+    <t>Mead</t>
+  </si>
+  <si>
+    <t>Mearl</t>
+  </si>
+  <si>
+    <t>GORTON, Steven Mearl</t>
+  </si>
+  <si>
+    <t>egrayl</t>
+  </si>
+  <si>
+    <t>egray1</t>
+  </si>
+  <si>
+    <t>GRAY, Emily Fisher</t>
+  </si>
+  <si>
+    <t>tampabaysr</t>
+  </si>
+  <si>
+    <t>tampabay.rr</t>
+  </si>
+  <si>
+    <t>GREENWOOD, Joen Elizabeth</t>
+  </si>
+  <si>
+    <t>REIM</t>
+  </si>
+  <si>
+    <t>KEIM</t>
+  </si>
+  <si>
+    <t>GRUNERT (KEIM), Miriam J.</t>
+  </si>
+  <si>
+    <t>sgubalal</t>
+  </si>
+  <si>
+    <t>sgubala1</t>
+  </si>
+  <si>
+    <t>GUBALA, Sara Margaret</t>
+  </si>
+  <si>
+    <t>HADDOCK, David Dewaide</t>
+  </si>
+  <si>
+    <t>hait</t>
+  </si>
+  <si>
+    <t>haight</t>
+  </si>
+  <si>
+    <t>HAIGHT (BERNDT), Colleen</t>
+  </si>
+  <si>
+    <t>w1u</t>
+  </si>
+  <si>
+    <t>wlu</t>
+  </si>
+  <si>
+    <t>HALE (HURD), Kimberly</t>
+  </si>
+  <si>
+    <t>jhal12</t>
+  </si>
+  <si>
+    <t>jhall2</t>
+  </si>
+  <si>
+    <t>HALL, Jason Yarwood</t>
+  </si>
+  <si>
+    <t>dharing</t>
+  </si>
+  <si>
+    <t>clharing</t>
+  </si>
+  <si>
+    <t>HARING-COZZI (HARING), Chelsea L.</t>
+  </si>
+  <si>
+    <t>nc.a.com</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Dorle</t>
+  </si>
+  <si>
+    <t>HELLMUTH, Dorle</t>
+  </si>
+  <si>
+    <t>robertletzel</t>
+  </si>
+  <si>
+    <t>robert.hetzel</t>
+  </si>
+  <si>
+    <t>HETZEL, Robert L.</t>
+  </si>
+  <si>
+    <t>W,</t>
+  </si>
+  <si>
+    <t>W.</t>
+  </si>
+  <si>
+    <t>HIESTER JR., Daniel W.</t>
+  </si>
+  <si>
+    <t>j1h9</t>
+  </si>
+  <si>
+    <t>jlh9</t>
+  </si>
+  <si>
+    <t>HILL (HILDRETH), Jennifer L.</t>
+  </si>
+  <si>
+    <t>honglhong</t>
+  </si>
+  <si>
+    <t>hong1hong</t>
+  </si>
+  <si>
+    <t>HIRSHLEIFER, David A.</t>
+  </si>
+  <si>
+    <t>gmhoffmanl</t>
+  </si>
+  <si>
+    <t>gmhoffman1</t>
+  </si>
+  <si>
+    <t>HOFFMAN, Marc E.</t>
+  </si>
+  <si>
+    <t>ecoholme buffalo</t>
+  </si>
+  <si>
+    <t>ecoholme@buffalo</t>
+  </si>
+  <si>
+    <t>HOLMES, James M.</t>
+  </si>
+  <si>
+    <t>nhoplerl</t>
+  </si>
+  <si>
+    <t>nhopler1</t>
+  </si>
+  <si>
+    <t>HOPE, Nicholas C.</t>
+  </si>
+  <si>
+    <t>fhoye</t>
+  </si>
+  <si>
+    <t>f_hoye</t>
+  </si>
+  <si>
+    <t>HOYE, Timothy Kevin</t>
+  </si>
+  <si>
+    <t>stdoudstate</t>
+  </si>
+  <si>
+    <t>stcloudstate</t>
+  </si>
+  <si>
+    <t>HUGHES (NOLD), Patricia A.</t>
+  </si>
+  <si>
+    <t>humphreys.l</t>
+  </si>
+  <si>
+    <t>humphreys.1</t>
+  </si>
+  <si>
+    <t>HUMPHREYS, Leonard A.</t>
+  </si>
+  <si>
+    <t>ylevinl</t>
+  </si>
+  <si>
+    <t>ylevin1</t>
+  </si>
+  <si>
+    <t>HUNGERFORD (LEVIN), Yael</t>
+  </si>
+  <si>
+    <t>poLulaval</t>
+  </si>
+  <si>
+    <t>pol.ulaval</t>
+  </si>
+  <si>
+    <t>IMBEAU, Louis Marie</t>
+  </si>
+  <si>
+    <t>emest</t>
+  </si>
+  <si>
+    <t>ernest</t>
+  </si>
+  <si>
+    <t>JACKSON, Ernest D.</t>
+  </si>
+  <si>
+    <t>JAMALL</t>
+  </si>
+  <si>
+    <t>JAMALI</t>
+  </si>
+  <si>
+    <t>JAMALI, Usameh F.</t>
+  </si>
+  <si>
+    <t>Elizabeth
+M.</t>
+  </si>
+  <si>
+    <t>Elizabeth M.</t>
+  </si>
+  <si>
+    <t>JANAIRO (TALBOT), Elizabeth M.</t>
+  </si>
+  <si>
+    <t>talksofily</t>
+  </si>
+  <si>
+    <t>talksoftly</t>
+  </si>
+  <si>
+    <t>JOHNSON, Douglas Mark</t>
+  </si>
+  <si>
+    <t>KACZOROWSKE</t>
+  </si>
+  <si>
+    <t>KACZOROWSKI</t>
+  </si>
+  <si>
+    <t>KACZOROWSKI (MARMON, Sharon M.</t>
+  </si>
+  <si>
+    <t>kaplel</t>
+  </si>
+  <si>
+    <t>kaple1</t>
+  </si>
+  <si>
+    <t>KAPLE BOSWELL (GORDON), Josephine G.</t>
+  </si>
+  <si>
+    <t>danietkarp</t>
+  </si>
+  <si>
+    <t>daniel.karp</t>
+  </si>
+  <si>
+    <t>KARP, Daniel A.</t>
+  </si>
+  <si>
+    <t>alcashdan</t>
+  </si>
+  <si>
+    <t>akashdan</t>
+  </si>
+  <si>
+    <t>KASHDAN, Andrew D.</t>
+  </si>
+  <si>
+    <t>masterchieficc</t>
+  </si>
+  <si>
+    <t>masterchiefxx</t>
+  </si>
+  <si>
+    <t>KHAN, Amin A.</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>KILLILEA, Alfred G.</t>
+  </si>
+  <si>
+    <t>HITCH</t>
+  </si>
+  <si>
+    <t>KITCH</t>
+  </si>
+  <si>
+    <t>KITCH (VOSBURG), Sarah Beth Vosburg</t>
+  </si>
+  <si>
+    <t>scic05</t>
+  </si>
+  <si>
+    <t>sclc05</t>
+  </si>
+  <si>
+    <t>KITZINGER (LISTON), Sara</t>
+  </si>
+  <si>
+    <t>cflsr</t>
+  </si>
+  <si>
+    <t>cfl.rr</t>
+  </si>
+  <si>
+    <t>KLUG, Brian</t>
+  </si>
+  <si>
+    <t>mknackstedtl</t>
+  </si>
+  <si>
+    <t>mknackstedt1</t>
+  </si>
+  <si>
+    <t>KNACKSTEDT, Michael J.</t>
+  </si>
+  <si>
+    <t>*Not Scanned*</t>
+  </si>
+  <si>
+    <t>KOCHERLAKOTA, Narayana R.</t>
+  </si>
+  <si>
+    <t>heididange</t>
+  </si>
+  <si>
+    <t>heidi.lange</t>
+  </si>
+  <si>
+    <t>LANGE GALITO (LANGE), Heidi M.</t>
+  </si>
+  <si>
+    <t>LAMER</t>
+  </si>
+  <si>
+    <t>LANIER</t>
+  </si>
+  <si>
+    <t>LANIER, Mark W.</t>
+  </si>
+  <si>
+    <t>EARRIVEE</t>
+  </si>
+  <si>
+    <t>L'ARRIVE</t>
+  </si>
+  <si>
+    <t>L'ARRIVEE, Elizabeth A.</t>
+  </si>
+  <si>
+    <t>VARRIVEE</t>
+  </si>
+  <si>
+    <t>L'ARRIVEE, Robert A.</t>
+  </si>
+  <si>
+    <t>deahy</t>
+  </si>
+  <si>
+    <t>cleahy</t>
+  </si>
+  <si>
+    <t>LEAHY (NICHOLS), Christianna Nichols</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>LEE</t>
+  </si>
+  <si>
+    <t>LEE, Sam King-Sam</t>
+  </si>
+  <si>
+    <t>dehman4413</t>
+  </si>
+  <si>
+    <t>clehmann4413</t>
+  </si>
+  <si>
+    <t>LEHMAN, Christopher</t>
+  </si>
+  <si>
+    <t>dehmann</t>
+  </si>
+  <si>
+    <t>tlehmann</t>
+  </si>
+  <si>
+    <t>LEHMANN, Timothy A.</t>
+  </si>
+  <si>
+    <t>1eibowitzl</t>
+  </si>
+  <si>
+    <t>leibowitzl</t>
+  </si>
+  <si>
+    <t>LEIBOWITZ (SHOICHET), Lisa F.</t>
+  </si>
+  <si>
+    <t>mlilla columbia</t>
+  </si>
+  <si>
+    <t>mlilla@columbia</t>
+  </si>
+  <si>
+    <t>LILLA, Mark T.</t>
+  </si>
+  <si>
+    <t>11oyd</t>
+  </si>
+  <si>
+    <t>lloyd</t>
+  </si>
+  <si>
+    <t>LLOYD, Gordon</t>
+  </si>
+  <si>
+    <t>gordondloyd</t>
+  </si>
+  <si>
+    <t>gordon.lloyd</t>
+  </si>
+  <si>
+    <t>ds1ow5</t>
+  </si>
+  <si>
+    <t>dslow5</t>
+  </si>
+  <si>
+    <t>LOWENTHAL (STEEVES), Sandra J.</t>
+  </si>
+  <si>
+    <t>duse</t>
+  </si>
+  <si>
+    <t>cluse</t>
+  </si>
+  <si>
+    <t>LUSE, Christopher A.</t>
+  </si>
+  <si>
+    <t>jlyonsl</t>
+  </si>
+  <si>
+    <t>jlyons1</t>
+  </si>
+  <si>
+    <t>LYONS, Justin D.</t>
+  </si>
+  <si>
+    <t>maaranenl</t>
+  </si>
+  <si>
+    <t>maaranen1</t>
+  </si>
+  <si>
+    <t>MAARANEN, Steven A.</t>
+  </si>
+  <si>
+    <t>Martha
+Abele</t>
+  </si>
+  <si>
+    <t>Martha Abele</t>
+  </si>
+  <si>
+    <t>MAC IVER (ABELE), Martha Abele</t>
+  </si>
+  <si>
+    <t>butlet</t>
+  </si>
+  <si>
+    <t>butler</t>
+  </si>
+  <si>
+    <t>MAIN, Robert Stokes</t>
+  </si>
+  <si>
+    <t>samaloneyl</t>
+  </si>
+  <si>
+    <t>samaloney1</t>
+  </si>
+  <si>
+    <t>MALONEY, Stephanie A.</t>
   </si>
 </sst>
 </file>
@@ -635,11 +1156,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -948,7 +1472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -956,17 +1480,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1912,6 +2436,846 @@
       </c>
       <c r="D68" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69">
+        <v>134</v>
+      </c>
+      <c r="D69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70">
+        <v>134</v>
+      </c>
+      <c r="D70" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71">
+        <v>138</v>
+      </c>
+      <c r="D71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72">
+        <v>141</v>
+      </c>
+      <c r="D72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73">
+        <v>143</v>
+      </c>
+      <c r="D73" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75">
+        <v>146</v>
+      </c>
+      <c r="D75" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76">
+        <v>148</v>
+      </c>
+      <c r="D76" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77">
+        <v>149</v>
+      </c>
+      <c r="D77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78">
+        <v>150</v>
+      </c>
+      <c r="D78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79">
+        <v>150</v>
+      </c>
+      <c r="D79" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>221</v>
+      </c>
+      <c r="B80" t="s">
+        <v>222</v>
+      </c>
+      <c r="C80">
+        <v>154</v>
+      </c>
+      <c r="D80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <v>159</v>
+      </c>
+      <c r="D81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82">
+        <v>160</v>
+      </c>
+      <c r="D82" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83">
+        <v>164</v>
+      </c>
+      <c r="D83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84">
+        <v>165</v>
+      </c>
+      <c r="D84" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85">
+        <v>165</v>
+      </c>
+      <c r="D85" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86">
+        <v>167</v>
+      </c>
+      <c r="D86" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" t="s">
+        <v>241</v>
+      </c>
+      <c r="C87">
+        <v>168</v>
+      </c>
+      <c r="D87" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88">
+        <v>169</v>
+      </c>
+      <c r="D88" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89">
+        <v>170</v>
+      </c>
+      <c r="D89" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90">
+        <v>172</v>
+      </c>
+      <c r="D90" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91">
+        <v>173</v>
+      </c>
+      <c r="D91" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92">
+        <v>173</v>
+      </c>
+      <c r="D92" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93">
+        <v>174</v>
+      </c>
+      <c r="D93" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94">
+        <v>176</v>
+      </c>
+      <c r="D94" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95">
+        <v>177</v>
+      </c>
+      <c r="D95" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>267</v>
+      </c>
+      <c r="B96" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96">
+        <v>178</v>
+      </c>
+      <c r="D96" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30">
+      <c r="A97" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97">
+        <v>178</v>
+      </c>
+      <c r="D97" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>273</v>
+      </c>
+      <c r="B98" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98">
+        <v>181</v>
+      </c>
+      <c r="D98" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99">
+        <v>184</v>
+      </c>
+      <c r="D99" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>279</v>
+      </c>
+      <c r="B100" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100">
+        <v>185</v>
+      </c>
+      <c r="D100" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>282</v>
+      </c>
+      <c r="B101" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101">
+        <v>186</v>
+      </c>
+      <c r="D101" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>285</v>
+      </c>
+      <c r="B102" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102">
+        <v>186</v>
+      </c>
+      <c r="D102" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>288</v>
+      </c>
+      <c r="B103" t="s">
+        <v>289</v>
+      </c>
+      <c r="C103">
+        <v>192</v>
+      </c>
+      <c r="D103" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>291</v>
+      </c>
+      <c r="B104" t="s">
+        <v>292</v>
+      </c>
+      <c r="C104">
+        <v>192</v>
+      </c>
+      <c r="D104" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>294</v>
+      </c>
+      <c r="B105" t="s">
+        <v>295</v>
+      </c>
+      <c r="C105">
+        <v>195</v>
+      </c>
+      <c r="D105" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106">
+        <v>195</v>
+      </c>
+      <c r="D106" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107">
+        <v>196</v>
+      </c>
+      <c r="D107" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>303</v>
+      </c>
+      <c r="B108" t="s">
+        <v>304</v>
+      </c>
+      <c r="C108">
+        <v>197</v>
+      </c>
+      <c r="D108" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B109" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109">
+        <v>198</v>
+      </c>
+      <c r="D109" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" t="s">
+        <v>309</v>
+      </c>
+      <c r="C110">
+        <v>206</v>
+      </c>
+      <c r="D110" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>311</v>
+      </c>
+      <c r="B111" t="s">
+        <v>312</v>
+      </c>
+      <c r="C111">
+        <v>206</v>
+      </c>
+      <c r="D111" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" t="s">
+        <v>315</v>
+      </c>
+      <c r="C112">
+        <v>206</v>
+      </c>
+      <c r="D112" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>317</v>
+      </c>
+      <c r="B113" t="s">
+        <v>315</v>
+      </c>
+      <c r="C113">
+        <v>207</v>
+      </c>
+      <c r="D113" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>319</v>
+      </c>
+      <c r="B114" t="s">
+        <v>320</v>
+      </c>
+      <c r="C114">
+        <v>208</v>
+      </c>
+      <c r="D114" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>322</v>
+      </c>
+      <c r="B115" t="s">
+        <v>323</v>
+      </c>
+      <c r="C115">
+        <v>210</v>
+      </c>
+      <c r="D115" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>325</v>
+      </c>
+      <c r="B116" t="s">
+        <v>326</v>
+      </c>
+      <c r="C116">
+        <v>211</v>
+      </c>
+      <c r="D116" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>328</v>
+      </c>
+      <c r="B117" t="s">
+        <v>329</v>
+      </c>
+      <c r="C117">
+        <v>211</v>
+      </c>
+      <c r="D117" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>331</v>
+      </c>
+      <c r="B118" t="s">
+        <v>332</v>
+      </c>
+      <c r="C118">
+        <v>212</v>
+      </c>
+      <c r="D118" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>334</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C119">
+        <v>216</v>
+      </c>
+      <c r="D119" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>337</v>
+      </c>
+      <c r="B120" t="s">
+        <v>338</v>
+      </c>
+      <c r="C120">
+        <v>219</v>
+      </c>
+      <c r="D120" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>340</v>
+      </c>
+      <c r="B121" t="s">
+        <v>341</v>
+      </c>
+      <c r="C121">
+        <v>219</v>
+      </c>
+      <c r="D121" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>342</v>
+      </c>
+      <c r="B122" t="s">
+        <v>343</v>
+      </c>
+      <c r="C122">
+        <v>222</v>
+      </c>
+      <c r="D122" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>345</v>
+      </c>
+      <c r="B123" t="s">
+        <v>346</v>
+      </c>
+      <c r="C123">
+        <v>224</v>
+      </c>
+      <c r="D123" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>348</v>
+      </c>
+      <c r="B124" t="s">
+        <v>349</v>
+      </c>
+      <c r="C124">
+        <v>225</v>
+      </c>
+      <c r="D124" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>351</v>
+      </c>
+      <c r="B125" t="s">
+        <v>352</v>
+      </c>
+      <c r="C125">
+        <v>226</v>
+      </c>
+      <c r="D125" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="30">
+      <c r="A126" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B126" t="s">
+        <v>355</v>
+      </c>
+      <c r="C126">
+        <v>226</v>
+      </c>
+      <c r="D126" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>357</v>
+      </c>
+      <c r="B127" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127">
+        <v>229</v>
+      </c>
+      <c r="D127" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>360</v>
+      </c>
+      <c r="B128" t="s">
+        <v>361</v>
+      </c>
+      <c r="C128">
+        <v>230</v>
+      </c>
+      <c r="D128" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -1920,6 +3284,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B88" r:id="rId2"/>
+    <hyperlink ref="B119" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/js/earhart-fellows/Proofreading details.xlsx
+++ b/js/earhart-fellows/Proofreading details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="704">
   <si>
     <t>Recorded as</t>
   </si>
@@ -1110,6 +1110,1030 @@
   </si>
   <si>
     <t>MALONEY, Stephanie A.</t>
+  </si>
+  <si>
+    <t>marshal143</t>
+  </si>
+  <si>
+    <t>marshall143</t>
+  </si>
+  <si>
+    <t>MARSHALL, Terence E.</t>
+  </si>
+  <si>
+    <t>lanartin</t>
+  </si>
+  <si>
+    <t>kmartin</t>
+  </si>
+  <si>
+    <t>MARTIN, Kathrym M.</t>
+  </si>
+  <si>
+    <t>mathenyoyahoo</t>
+  </si>
+  <si>
+    <t>matheny@yahoo</t>
+  </si>
+  <si>
+    <t>MATHENY, Richard R.</t>
+  </si>
+  <si>
+    <t>dayton</t>
+  </si>
+  <si>
+    <t>clayton</t>
+  </si>
+  <si>
+    <t>MATTIE, Sean M.</t>
+  </si>
+  <si>
+    <t>ptbilll</t>
+  </si>
+  <si>
+    <t>ptbill1</t>
+  </si>
+  <si>
+    <t>MAUER, William A.</t>
+  </si>
+  <si>
+    <t>MCALTLIFFE</t>
+  </si>
+  <si>
+    <t>MCAULIFFE</t>
+  </si>
+  <si>
+    <t>MCAULIFFE, Marguerite</t>
+  </si>
+  <si>
+    <t>MCCATVIMON</t>
+  </si>
+  <si>
+    <t>MCCAMMON</t>
+  </si>
+  <si>
+    <t>MCCAMMON JR., Bert Charles</t>
+  </si>
+  <si>
+    <t>Williatn</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>MCCARTHY, William D.</t>
+  </si>
+  <si>
+    <t>Millen</t>
+  </si>
+  <si>
+    <t>Millett</t>
+  </si>
+  <si>
+    <t>MCCARTNEY (MILLETT), Alison Millett</t>
+  </si>
+  <si>
+    <t>1ek25</t>
+  </si>
+  <si>
+    <t>lek25</t>
+  </si>
+  <si>
+    <t>MCCRARY (KRALL), Lorraine Krall</t>
+  </si>
+  <si>
+    <t>gmai1</t>
+  </si>
+  <si>
+    <t>gmail</t>
+  </si>
+  <si>
+    <t>MCNULTY, John J.</t>
+  </si>
+  <si>
+    <t>QUINN, Kathleen M.</t>
+  </si>
+  <si>
+    <t>jmeginnissl</t>
+  </si>
+  <si>
+    <t>jmeginniss1</t>
+  </si>
+  <si>
+    <t>MEGINNISS, James R.</t>
+  </si>
+  <si>
+    <t>MFSSENHEIMER</t>
+  </si>
+  <si>
+    <t>MESSENHEIMER</t>
+  </si>
+  <si>
+    <t>MESSENHEIMER, Harold C.</t>
+  </si>
+  <si>
+    <t>mett361678 aol.com</t>
+  </si>
+  <si>
+    <t>mett361678@aol.com</t>
+  </si>
+  <si>
+    <t>METCALF, John G.</t>
+  </si>
+  <si>
+    <t>krnickelsonl</t>
+  </si>
+  <si>
+    <t>kmickelson1</t>
+  </si>
+  <si>
+    <t>MICKELSON, Kimberley</t>
+  </si>
+  <si>
+    <t>mikese1141</t>
+  </si>
+  <si>
+    <t>mikesell41</t>
+  </si>
+  <si>
+    <t>MIKESELL, Phillip D.</t>
+  </si>
+  <si>
+    <t>amitche114135</t>
+  </si>
+  <si>
+    <t>amitchell4135</t>
+  </si>
+  <si>
+    <t>MITCHELL, Albert Russell</t>
+  </si>
+  <si>
+    <t>MONHOLLON, Jimmie R.</t>
+  </si>
+  <si>
+    <t>ROMANCHEK, Walter R.</t>
+  </si>
+  <si>
+    <t>SHENOY, Sudha R.</t>
+  </si>
+  <si>
+    <t>SMITH, Norman R.</t>
+  </si>
+  <si>
+    <t>STONER JR., James R.</t>
+  </si>
+  <si>
+    <t>MOO RHOUSE</t>
+  </si>
+  <si>
+    <t>MOOREHOUSE</t>
+  </si>
+  <si>
+    <t>MOORHOUSE, John C.</t>
+  </si>
+  <si>
+    <t>MOREL, Lucas E.</t>
+  </si>
+  <si>
+    <t>Jeffiy</t>
+  </si>
+  <si>
+    <t>Jeffry</t>
+  </si>
+  <si>
+    <t>MORRISON, Jeffry H.</t>
+  </si>
+  <si>
+    <t>dariononline</t>
+  </si>
+  <si>
+    <t>clariononline</t>
+  </si>
+  <si>
+    <t>MOSELEY JR. Thomas J.</t>
+  </si>
+  <si>
+    <t>tightalwayrndll</t>
+  </si>
+  <si>
+    <t>tightalwayrnd11</t>
+  </si>
+  <si>
+    <t>MULLER</t>
+  </si>
+  <si>
+    <t>MUELLER</t>
+  </si>
+  <si>
+    <t>MUELLER, Paul D.</t>
+  </si>
+  <si>
+    <t>tmuenchgnotes</t>
+  </si>
+  <si>
+    <t>tmuench@notes</t>
+  </si>
+  <si>
+    <t>MUENCH , Thomas</t>
+  </si>
+  <si>
+    <t>co1umbia</t>
+  </si>
+  <si>
+    <t>columbia</t>
+  </si>
+  <si>
+    <t>MUKHOPADHYAY, Dipali</t>
+  </si>
+  <si>
+    <t>crnc</t>
+  </si>
+  <si>
+    <t>cmc</t>
+  </si>
+  <si>
+    <t>NADON, Christopher J.</t>
+  </si>
+  <si>
+    <t>natkelpa</t>
+  </si>
+  <si>
+    <t>natke1pa</t>
+  </si>
+  <si>
+    <t>NATKE, Paul A.</t>
+  </si>
+  <si>
+    <t>stuartneel</t>
+  </si>
+  <si>
+    <t>stuart.neel</t>
+  </si>
+  <si>
+    <t>NEEL, Stuart D.</t>
+  </si>
+  <si>
+    <t>neumaierl</t>
+  </si>
+  <si>
+    <t>neumaier1</t>
+  </si>
+  <si>
+    <t>NEUMAIER, Erwin</t>
+  </si>
+  <si>
+    <t>pniemeyerl</t>
+  </si>
+  <si>
+    <t>pniemeyer1</t>
+  </si>
+  <si>
+    <t>NIEMEYER, Paul V.</t>
+  </si>
+  <si>
+    <t>carolina.a.com</t>
+  </si>
+  <si>
+    <t>carolina.rr.com</t>
+  </si>
+  <si>
+    <t>NISHIKAWA, Dale K.</t>
+  </si>
+  <si>
+    <t>Chiald</t>
+  </si>
+  <si>
+    <t>Chiaki</t>
+  </si>
+  <si>
+    <t>NISHIYAMA, Paul Chiaki</t>
+  </si>
+  <si>
+    <t>southem</t>
+  </si>
+  <si>
+    <t>southern</t>
+  </si>
+  <si>
+    <t>O'NEILL, Johnathan G.</t>
+  </si>
+  <si>
+    <t>chilcamenow</t>
+  </si>
+  <si>
+    <t>chikamenow</t>
+  </si>
+  <si>
+    <t>ONG, Stephen R.</t>
+  </si>
+  <si>
+    <t>PACTER, Paul</t>
+  </si>
+  <si>
+    <t>Gytmg</t>
+  </si>
+  <si>
+    <t>Gyung</t>
+  </si>
+  <si>
+    <t>PAIK, Daniel (Gyung Hyun)</t>
+  </si>
+  <si>
+    <t>nc.n.com</t>
+  </si>
+  <si>
+    <t>PAPAGEORGIOU, Demetrios</t>
+  </si>
+  <si>
+    <t>PEJOVICH, Svetozar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pejovicl@sbcglobat.net </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pejovic1@sbcglobal.net </t>
+  </si>
+  <si>
+    <t>gabrietpellathy</t>
+  </si>
+  <si>
+    <t>gabriel.pellathy</t>
+  </si>
+  <si>
+    <t>PELLATHY, Gabriel S.</t>
+  </si>
+  <si>
+    <t>PERUVIAN</t>
+  </si>
+  <si>
+    <t>PERLMAN</t>
+  </si>
+  <si>
+    <t>PERLMAN, Morris</t>
+  </si>
+  <si>
+    <t>comell</t>
+  </si>
+  <si>
+    <t>cornell</t>
+  </si>
+  <si>
+    <t>PETERS, Elizabeth</t>
+  </si>
+  <si>
+    <t>1p2c</t>
+  </si>
+  <si>
+    <t>lp2c</t>
+  </si>
+  <si>
+    <t>PETTIT JR., Laurence C.</t>
+  </si>
+  <si>
+    <t>npickusl</t>
+  </si>
+  <si>
+    <t>npickus1</t>
+  </si>
+  <si>
+    <t>PICKUS, Noah M. J.</t>
+  </si>
+  <si>
+    <t>PIERCE, Brooks</t>
+  </si>
+  <si>
+    <t>PORTE</t>
+  </si>
+  <si>
+    <t>PORTH</t>
+  </si>
+  <si>
+    <t>PORTH, Richard H.</t>
+  </si>
+  <si>
+    <t>PORTNYKII</t>
+  </si>
+  <si>
+    <t>PORTNYKH</t>
+  </si>
+  <si>
+    <t>PORTNYKH, Margarita A.</t>
+  </si>
+  <si>
+    <t>sbcglobat</t>
+  </si>
+  <si>
+    <t>sbcglobal</t>
+  </si>
+  <si>
+    <t>POSEY, John M.</t>
+  </si>
+  <si>
+    <t>WPutz</t>
+  </si>
+  <si>
+    <t>W.Putz</t>
+  </si>
+  <si>
+    <t>PUTZ, David W.</t>
+  </si>
+  <si>
+    <t>RNANAN</t>
+  </si>
+  <si>
+    <t>RA'ANAN</t>
+  </si>
+  <si>
+    <t>RA'ANAN, Gavriel D.</t>
+  </si>
+  <si>
+    <t>robisagan</t>
+  </si>
+  <si>
+    <t>robi.ragan</t>
+  </si>
+  <si>
+    <t>RAGAN, Robert Andrew</t>
+  </si>
+  <si>
+    <t>REDMOUNI</t>
+  </si>
+  <si>
+    <t>REDMOUNT</t>
+  </si>
+  <si>
+    <t>REDMOUNT, Esther Rachel</t>
+  </si>
+  <si>
+    <t>regissenault</t>
+  </si>
+  <si>
+    <t>regis.renault</t>
+  </si>
+  <si>
+    <t>RENAULT, Regis</t>
+  </si>
+  <si>
+    <t>Carly
+G.</t>
+  </si>
+  <si>
+    <t>Carly G.</t>
+  </si>
+  <si>
+    <t>RIISAGER (KINSELLA), Carly G.</t>
+  </si>
+  <si>
+    <t>johnfiley357</t>
+  </si>
+  <si>
+    <t>RILEY JR., John Vincent</t>
+  </si>
+  <si>
+    <t>john.riley357</t>
+  </si>
+  <si>
+    <t>russellsiley3</t>
+  </si>
+  <si>
+    <t>russell.riley3</t>
+  </si>
+  <si>
+    <t>RILEY, Russell L.</t>
+  </si>
+  <si>
+    <t>r1r2p</t>
+  </si>
+  <si>
+    <t>rlr2p</t>
+  </si>
+  <si>
+    <t>ritter</t>
+  </si>
+  <si>
+    <t>sitter</t>
+  </si>
+  <si>
+    <t>RITTER, Jay Rial</t>
+  </si>
+  <si>
+    <t>alansockwood</t>
+  </si>
+  <si>
+    <t>alan.rockwood</t>
+  </si>
+  <si>
+    <t>ROCKWOOD, Alan Douglas</t>
+  </si>
+  <si>
+    <t>JRogersl</t>
+  </si>
+  <si>
+    <t>JRogers1</t>
+  </si>
+  <si>
+    <t>ROGERS, Jeffery J.</t>
+  </si>
+  <si>
+    <t>m_ftrose</t>
+  </si>
+  <si>
+    <t>m_f_rose</t>
+  </si>
+  <si>
+    <t>ROSE, Matthew F.</t>
+  </si>
+  <si>
+    <t>monitot</t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t>ROSENZWEIG, Arthur</t>
+  </si>
+  <si>
+    <t>rotnerl</t>
+  </si>
+  <si>
+    <t>ROTNER, Loren J.</t>
+  </si>
+  <si>
+    <t>rotner1</t>
+  </si>
+  <si>
+    <t>ROURICE</t>
+  </si>
+  <si>
+    <t>ROURKE</t>
+  </si>
+  <si>
+    <t>ROURKE, Blair Eugene</t>
+  </si>
+  <si>
+    <t>crubinl</t>
+  </si>
+  <si>
+    <t>crubin1</t>
+  </si>
+  <si>
+    <t>RUBIN, Charles T.</t>
+  </si>
+  <si>
+    <t>boadu_l</t>
+  </si>
+  <si>
+    <t>boadu_1</t>
+  </si>
+  <si>
+    <t>RUBIN, David Bruce</t>
+  </si>
+  <si>
+    <t>chanasuderman</t>
+  </si>
+  <si>
+    <t>chana.ruderman</t>
+  </si>
+  <si>
+    <t>RUDERMAN, Anne Crippen</t>
+  </si>
+  <si>
+    <t>Jemtifer</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>SALEM (HARE-DIGGS), Jennifer Hare</t>
+  </si>
+  <si>
+    <t>donsanford</t>
+  </si>
+  <si>
+    <t>donr.sanford</t>
+  </si>
+  <si>
+    <t>SANFORD, Donald G.</t>
+  </si>
+  <si>
+    <t>irnf</t>
+  </si>
+  <si>
+    <t>imf</t>
+  </si>
+  <si>
+    <t>SCHIFF, Jerald Alan</t>
+  </si>
+  <si>
+    <t>rschiffl</t>
+  </si>
+  <si>
+    <t>rschiff1</t>
+  </si>
+  <si>
+    <t>SCHIFF, Rebecca L.</t>
+  </si>
+  <si>
+    <t>ashulmanl</t>
+  </si>
+  <si>
+    <t>ashulman1</t>
+  </si>
+  <si>
+    <t>SCHULMAN, Adam L.</t>
+  </si>
+  <si>
+    <t>SCHULZICE</t>
+  </si>
+  <si>
+    <t>SCHULZKE</t>
+  </si>
+  <si>
+    <t>SCHULZKE, Charles Eric</t>
+  </si>
+  <si>
+    <t>SCHYDLOWSICY</t>
+  </si>
+  <si>
+    <t>SCHYDLOWSKY</t>
+  </si>
+  <si>
+    <t>SCHYDLOWSKY, Daniel M.</t>
+  </si>
+  <si>
+    <t>seaton_pau12004</t>
+  </si>
+  <si>
+    <t>seaton_paul2004</t>
+  </si>
+  <si>
+    <t>SEATON JR., Peter Paul</t>
+  </si>
+  <si>
+    <t>SEGRAVFS</t>
+  </si>
+  <si>
+    <t>SEGRAVES</t>
+  </si>
+  <si>
+    <t>SEGRAVES, Joe</t>
+  </si>
+  <si>
+    <t>SHAICRA</t>
+  </si>
+  <si>
+    <t>SHAKRA</t>
+  </si>
+  <si>
+    <t>SHAKRA, Amani Abu</t>
+  </si>
+  <si>
+    <t>SHANICEN</t>
+  </si>
+  <si>
+    <t>SHANKEN</t>
+  </si>
+  <si>
+    <t>SHANKEN, Jay Allen</t>
+  </si>
+  <si>
+    <t>rochesterar</t>
+  </si>
+  <si>
+    <t>rochester.rr</t>
+  </si>
+  <si>
+    <t>SHOGAN, Colleen J.</t>
+  </si>
+  <si>
+    <t>alchtarsidclique</t>
+  </si>
+  <si>
+    <t>akhtarsiddique</t>
+  </si>
+  <si>
+    <t>SIDDIQUE, Akhtar</t>
+  </si>
+  <si>
+    <t>SIEWLERSKI</t>
+  </si>
+  <si>
+    <t>SIEWIERSKI</t>
+  </si>
+  <si>
+    <t>SIEWIERSKI, Wojciech K.</t>
+  </si>
+  <si>
+    <t>j1s245</t>
+  </si>
+  <si>
+    <t>jls245</t>
+  </si>
+  <si>
+    <t>SILVER, Jonathan L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caroll. </t>
+  </si>
+  <si>
+    <t>Carol J.</t>
+  </si>
+  <si>
+    <t>SIMON, Carol J.</t>
+  </si>
+  <si>
+    <t>SIROICY</t>
+  </si>
+  <si>
+    <t>SIROKY</t>
+  </si>
+  <si>
+    <t>SIROKY, David S.</t>
+  </si>
+  <si>
+    <t>SHERRY</t>
+  </si>
+  <si>
+    <t>SKERRY</t>
+  </si>
+  <si>
+    <t>SKERRY JR., Peter N.</t>
+  </si>
+  <si>
+    <t>plcsmith</t>
+  </si>
+  <si>
+    <t>pksmith</t>
+  </si>
+  <si>
+    <t>SMITH, Patricia Kay</t>
+  </si>
+  <si>
+    <t>SPIEKERIVIAN</t>
+  </si>
+  <si>
+    <t>SPIEKERMAN</t>
+  </si>
+  <si>
+    <t>SPIEKERMAN, Tim J.</t>
+  </si>
+  <si>
+    <t>SRIN WAS</t>
+  </si>
+  <si>
+    <t>SRINIVAS</t>
+  </si>
+  <si>
+    <t>SRINIVAS, Tulasi</t>
+  </si>
+  <si>
+    <t>STAMPLEIVIAN</t>
+  </si>
+  <si>
+    <t>STAMPLEMAN</t>
+  </si>
+  <si>
+    <t>STAMPLEMAN, Arthur Howard</t>
+  </si>
+  <si>
+    <t>williarn</t>
+  </si>
+  <si>
+    <t>william</t>
+  </si>
+  <si>
+    <t>STANLEY, William</t>
+  </si>
+  <si>
+    <t>STAMPER</t>
+  </si>
+  <si>
+    <t>STARLIPER</t>
+  </si>
+  <si>
+    <t>STARLIPER, Jay P.</t>
+  </si>
+  <si>
+    <t>STELZFR</t>
+  </si>
+  <si>
+    <t>STELZER</t>
+  </si>
+  <si>
+    <t>STELZER, Emily E.</t>
+  </si>
+  <si>
+    <t>doniquemotl</t>
+  </si>
+  <si>
+    <t>doniquemot1</t>
+  </si>
+  <si>
+    <t>STEPHENSON, Paul G.</t>
+  </si>
+  <si>
+    <t>STOEVFSANDT</t>
+  </si>
+  <si>
+    <t>STOEVESANDT</t>
+  </si>
+  <si>
+    <t>STOEVESANDT, Gertrud</t>
+  </si>
+  <si>
+    <t>Mann</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>STRMECKI, Marin</t>
+  </si>
+  <si>
+    <t>STRONG, Robert A.</t>
+  </si>
+  <si>
+    <t>rja</t>
+  </si>
+  <si>
+    <t>rjt1</t>
+  </si>
+  <si>
+    <t>THORNTON, Robert J.</t>
+  </si>
+  <si>
+    <t>JTiemey</t>
+  </si>
+  <si>
+    <t>Jtierney</t>
+  </si>
+  <si>
+    <t>TIERNEY JR., John J.</t>
+  </si>
+  <si>
+    <t>dtumag</t>
+  </si>
+  <si>
+    <t>dturnag</t>
+  </si>
+  <si>
+    <t>TURNAGE, D. William</t>
+  </si>
+  <si>
+    <t>noahj acob120</t>
+  </si>
+  <si>
+    <t>noahjacob120</t>
+  </si>
+  <si>
+    <t>TYLER, Noah J.</t>
+  </si>
+  <si>
+    <t>scottudell</t>
+  </si>
+  <si>
+    <t>scott.udell</t>
+  </si>
+  <si>
+    <t>UDELL, Scott F.</t>
+  </si>
+  <si>
+    <t>ELICAN</t>
+  </si>
+  <si>
+    <t>ELKAN</t>
+  </si>
+  <si>
+    <t>VAN ELKAN, Rachel N.</t>
+  </si>
+  <si>
+    <t>cveghl</t>
+  </si>
+  <si>
+    <t>cvegh1</t>
+  </si>
+  <si>
+    <t>VEGH, Carlos A.</t>
+  </si>
+  <si>
+    <t>fventi</t>
+  </si>
+  <si>
+    <t>f.venti</t>
+  </si>
+  <si>
+    <t>VENTI, Steven F.</t>
+  </si>
+  <si>
+    <t>andrevvveprek</t>
+  </si>
+  <si>
+    <t>andrewveprek</t>
+  </si>
+  <si>
+    <t>VEPREK, Andrew M.</t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>VETTER, Lisa Pace</t>
+  </si>
+  <si>
+    <t>VOLMERI</t>
+  </si>
+  <si>
+    <t>VOLMERT</t>
+  </si>
+  <si>
+    <t>VOLMERT, Andrew R.</t>
+  </si>
+  <si>
+    <t>christophetwalsh</t>
+  </si>
+  <si>
+    <t>christopher.walsh</t>
+  </si>
+  <si>
+    <t>WALSH, Christopher M.</t>
+  </si>
+  <si>
+    <t>t1u</t>
+  </si>
+  <si>
+    <t>tlu</t>
+  </si>
+  <si>
+    <t>WALSH (PAULO), Germaine Paulo</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>WEED (WEED, JR.), Charles</t>
+  </si>
+  <si>
+    <t>acweedl</t>
+  </si>
+  <si>
+    <t>acweed1</t>
+  </si>
+  <si>
+    <t>Franldee</t>
+  </si>
+  <si>
+    <t>Franklee</t>
+  </si>
+  <si>
+    <t>WHARTENBY (GILBERT), Franklee Gilbert</t>
+  </si>
+  <si>
+    <t>1whitell</t>
+  </si>
+  <si>
+    <t>lwhite11</t>
+  </si>
+  <si>
+    <t>WHITE, Lawrence H.</t>
+  </si>
+  <si>
+    <t>jnajamyl</t>
+  </si>
+  <si>
+    <t>jnajamy1</t>
+  </si>
+  <si>
+    <t>WINNICK, Joshua A.</t>
+  </si>
+  <si>
+    <t>rodgetwinsor</t>
+  </si>
+  <si>
+    <t>rodger.winsor</t>
+  </si>
+  <si>
+    <t>WINSOR, Roger A.</t>
+  </si>
+  <si>
+    <t>cornel</t>
+  </si>
+  <si>
+    <t>WISSINK (PARKER), Jennifer Parker</t>
+  </si>
+  <si>
+    <t>WIITTELS</t>
+  </si>
+  <si>
+    <t>WITTELS</t>
+  </si>
+  <si>
+    <t>WITTELS, William D.</t>
   </si>
 </sst>
 </file>
@@ -1160,10 +2184,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1472,7 +2496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1480,25 +2504,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
@@ -2831,7 +3854,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="30">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B97" t="s">
@@ -3237,7 +4260,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="30">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>354</v>
       </c>
       <c r="B126" t="s">
@@ -3276,6 +4299,1714 @@
       </c>
       <c r="D128" t="s">
         <v>362</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>363</v>
+      </c>
+      <c r="B129" t="s">
+        <v>364</v>
+      </c>
+      <c r="C129">
+        <v>234</v>
+      </c>
+      <c r="D129" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>366</v>
+      </c>
+      <c r="B130" t="s">
+        <v>367</v>
+      </c>
+      <c r="C130">
+        <v>235</v>
+      </c>
+      <c r="D130" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>369</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C131">
+        <v>236</v>
+      </c>
+      <c r="D131" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>372</v>
+      </c>
+      <c r="B132" t="s">
+        <v>373</v>
+      </c>
+      <c r="C132">
+        <v>236</v>
+      </c>
+      <c r="D132" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>375</v>
+      </c>
+      <c r="B133" t="s">
+        <v>376</v>
+      </c>
+      <c r="C133">
+        <v>237</v>
+      </c>
+      <c r="D133" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>378</v>
+      </c>
+      <c r="B134" t="s">
+        <v>379</v>
+      </c>
+      <c r="C134">
+        <v>238</v>
+      </c>
+      <c r="D134" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>381</v>
+      </c>
+      <c r="B135" t="s">
+        <v>382</v>
+      </c>
+      <c r="C135">
+        <v>238</v>
+      </c>
+      <c r="D135" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>384</v>
+      </c>
+      <c r="B136" t="s">
+        <v>385</v>
+      </c>
+      <c r="C136">
+        <v>239</v>
+      </c>
+      <c r="D136" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>387</v>
+      </c>
+      <c r="B137" t="s">
+        <v>388</v>
+      </c>
+      <c r="C137">
+        <v>239</v>
+      </c>
+      <c r="D137" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>390</v>
+      </c>
+      <c r="B138" t="s">
+        <v>391</v>
+      </c>
+      <c r="C138">
+        <v>241</v>
+      </c>
+      <c r="D138" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>393</v>
+      </c>
+      <c r="B139" t="s">
+        <v>394</v>
+      </c>
+      <c r="C139">
+        <v>245</v>
+      </c>
+      <c r="D139" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>393</v>
+      </c>
+      <c r="B140" t="s">
+        <v>394</v>
+      </c>
+      <c r="C140">
+        <v>300</v>
+      </c>
+      <c r="D140" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>397</v>
+      </c>
+      <c r="B141" t="s">
+        <v>398</v>
+      </c>
+      <c r="C141">
+        <v>246</v>
+      </c>
+      <c r="D141" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>400</v>
+      </c>
+      <c r="B142" t="s">
+        <v>401</v>
+      </c>
+      <c r="C142">
+        <v>249</v>
+      </c>
+      <c r="D142" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>403</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C143">
+        <v>250</v>
+      </c>
+      <c r="D143" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>406</v>
+      </c>
+      <c r="B144" t="s">
+        <v>407</v>
+      </c>
+      <c r="C144">
+        <v>251</v>
+      </c>
+      <c r="D144" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>409</v>
+      </c>
+      <c r="B145" t="s">
+        <v>410</v>
+      </c>
+      <c r="C145">
+        <v>252</v>
+      </c>
+      <c r="D145" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>412</v>
+      </c>
+      <c r="B146" t="s">
+        <v>413</v>
+      </c>
+      <c r="C146">
+        <v>256</v>
+      </c>
+      <c r="D146" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>88</v>
+      </c>
+      <c r="B147" t="s">
+        <v>90</v>
+      </c>
+      <c r="C147">
+        <v>258</v>
+      </c>
+      <c r="D147" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>88</v>
+      </c>
+      <c r="B148" t="s">
+        <v>90</v>
+      </c>
+      <c r="C148">
+        <v>312</v>
+      </c>
+      <c r="D148" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>88</v>
+      </c>
+      <c r="B149" t="s">
+        <v>90</v>
+      </c>
+      <c r="C149">
+        <v>336</v>
+      </c>
+      <c r="D149" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>88</v>
+      </c>
+      <c r="B150" t="s">
+        <v>90</v>
+      </c>
+      <c r="C150">
+        <v>342</v>
+      </c>
+      <c r="D150" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>88</v>
+      </c>
+      <c r="B151" t="s">
+        <v>90</v>
+      </c>
+      <c r="C151">
+        <v>354</v>
+      </c>
+      <c r="D151" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>420</v>
+      </c>
+      <c r="B152" t="s">
+        <v>421</v>
+      </c>
+      <c r="C152">
+        <v>260</v>
+      </c>
+      <c r="D152" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>215</v>
+      </c>
+      <c r="B153" t="s">
+        <v>216</v>
+      </c>
+      <c r="C153">
+        <v>260</v>
+      </c>
+      <c r="D153" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>424</v>
+      </c>
+      <c r="B154" t="s">
+        <v>425</v>
+      </c>
+      <c r="C154">
+        <v>262</v>
+      </c>
+      <c r="D154" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>427</v>
+      </c>
+      <c r="B155" t="s">
+        <v>428</v>
+      </c>
+      <c r="C155">
+        <v>262</v>
+      </c>
+      <c r="D155" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>430</v>
+      </c>
+      <c r="B156" t="s">
+        <v>431</v>
+      </c>
+      <c r="C156">
+        <v>262</v>
+      </c>
+      <c r="D156" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>432</v>
+      </c>
+      <c r="B157" t="s">
+        <v>433</v>
+      </c>
+      <c r="C157">
+        <v>263</v>
+      </c>
+      <c r="D157" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>435</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C158">
+        <v>264</v>
+      </c>
+      <c r="D158" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>438</v>
+      </c>
+      <c r="B159" t="s">
+        <v>439</v>
+      </c>
+      <c r="C159">
+        <v>264</v>
+      </c>
+      <c r="D159" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>441</v>
+      </c>
+      <c r="B160" t="s">
+        <v>442</v>
+      </c>
+      <c r="C160">
+        <v>267</v>
+      </c>
+      <c r="D160" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>444</v>
+      </c>
+      <c r="B161" t="s">
+        <v>445</v>
+      </c>
+      <c r="C161">
+        <v>268</v>
+      </c>
+      <c r="D161" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>447</v>
+      </c>
+      <c r="B162" t="s">
+        <v>448</v>
+      </c>
+      <c r="C162">
+        <v>269</v>
+      </c>
+      <c r="D162" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>450</v>
+      </c>
+      <c r="B163" t="s">
+        <v>451</v>
+      </c>
+      <c r="C163">
+        <v>270</v>
+      </c>
+      <c r="D163" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>453</v>
+      </c>
+      <c r="B164" t="s">
+        <v>454</v>
+      </c>
+      <c r="C164">
+        <v>272</v>
+      </c>
+      <c r="D164" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>456</v>
+      </c>
+      <c r="B165" t="s">
+        <v>457</v>
+      </c>
+      <c r="C165">
+        <v>273</v>
+      </c>
+      <c r="D165" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>459</v>
+      </c>
+      <c r="B166" t="s">
+        <v>460</v>
+      </c>
+      <c r="C166">
+        <v>273</v>
+      </c>
+      <c r="D166" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>462</v>
+      </c>
+      <c r="B167" t="s">
+        <v>463</v>
+      </c>
+      <c r="C167">
+        <v>278</v>
+      </c>
+      <c r="D167" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>465</v>
+      </c>
+      <c r="B168" t="s">
+        <v>466</v>
+      </c>
+      <c r="C168">
+        <v>278</v>
+      </c>
+      <c r="D168" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>79</v>
+      </c>
+      <c r="B169" t="s">
+        <v>80</v>
+      </c>
+      <c r="C169">
+        <v>281</v>
+      </c>
+      <c r="D169" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>469</v>
+      </c>
+      <c r="B170" t="s">
+        <v>470</v>
+      </c>
+      <c r="C170">
+        <v>282</v>
+      </c>
+      <c r="D170" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>472</v>
+      </c>
+      <c r="B171" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171">
+        <v>283</v>
+      </c>
+      <c r="D171" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>475</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C172">
+        <v>287</v>
+      </c>
+      <c r="D172" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>477</v>
+      </c>
+      <c r="B173" t="s">
+        <v>478</v>
+      </c>
+      <c r="C173">
+        <v>287</v>
+      </c>
+      <c r="D173" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>480</v>
+      </c>
+      <c r="B174" t="s">
+        <v>481</v>
+      </c>
+      <c r="C174">
+        <v>288</v>
+      </c>
+      <c r="D174" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>483</v>
+      </c>
+      <c r="B175" t="s">
+        <v>484</v>
+      </c>
+      <c r="C175">
+        <v>290</v>
+      </c>
+      <c r="D175" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>486</v>
+      </c>
+      <c r="B176" t="s">
+        <v>487</v>
+      </c>
+      <c r="C176">
+        <v>292</v>
+      </c>
+      <c r="D176" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>489</v>
+      </c>
+      <c r="B177" t="s">
+        <v>490</v>
+      </c>
+      <c r="C177">
+        <v>293</v>
+      </c>
+      <c r="D177" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>141</v>
+      </c>
+      <c r="B178" t="s">
+        <v>142</v>
+      </c>
+      <c r="C178">
+        <v>294</v>
+      </c>
+      <c r="D178" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>493</v>
+      </c>
+      <c r="B179" t="s">
+        <v>494</v>
+      </c>
+      <c r="C179">
+        <v>296</v>
+      </c>
+      <c r="D179" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>496</v>
+      </c>
+      <c r="B180" t="s">
+        <v>497</v>
+      </c>
+      <c r="C180">
+        <v>296</v>
+      </c>
+      <c r="D180" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>499</v>
+      </c>
+      <c r="B181" t="s">
+        <v>500</v>
+      </c>
+      <c r="C181">
+        <v>296</v>
+      </c>
+      <c r="D181" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>502</v>
+      </c>
+      <c r="B182" t="s">
+        <v>503</v>
+      </c>
+      <c r="C182">
+        <v>299</v>
+      </c>
+      <c r="D182" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>505</v>
+      </c>
+      <c r="B183" t="s">
+        <v>506</v>
+      </c>
+      <c r="C183">
+        <v>300</v>
+      </c>
+      <c r="D183" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>508</v>
+      </c>
+      <c r="B184" t="s">
+        <v>509</v>
+      </c>
+      <c r="C184">
+        <v>301</v>
+      </c>
+      <c r="D184" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>511</v>
+      </c>
+      <c r="B185" t="s">
+        <v>512</v>
+      </c>
+      <c r="C185">
+        <v>304</v>
+      </c>
+      <c r="D185" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>514</v>
+      </c>
+      <c r="B186" t="s">
+        <v>515</v>
+      </c>
+      <c r="C186">
+        <v>305</v>
+      </c>
+      <c r="D186" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="30">
+      <c r="A187" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B187" t="s">
+        <v>518</v>
+      </c>
+      <c r="C187">
+        <v>308</v>
+      </c>
+      <c r="D187" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>520</v>
+      </c>
+      <c r="B188" t="s">
+        <v>522</v>
+      </c>
+      <c r="C188">
+        <v>308</v>
+      </c>
+      <c r="D188" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>523</v>
+      </c>
+      <c r="B189" t="s">
+        <v>524</v>
+      </c>
+      <c r="C189">
+        <v>308</v>
+      </c>
+      <c r="D189" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>526</v>
+      </c>
+      <c r="B190" t="s">
+        <v>527</v>
+      </c>
+      <c r="C190">
+        <v>308</v>
+      </c>
+      <c r="D190" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>529</v>
+      </c>
+      <c r="B191" t="s">
+        <v>528</v>
+      </c>
+      <c r="C191">
+        <v>309</v>
+      </c>
+      <c r="D191" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>531</v>
+      </c>
+      <c r="B192" t="s">
+        <v>532</v>
+      </c>
+      <c r="C192">
+        <v>311</v>
+      </c>
+      <c r="D192" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>534</v>
+      </c>
+      <c r="B193" t="s">
+        <v>535</v>
+      </c>
+      <c r="C193">
+        <v>311</v>
+      </c>
+      <c r="D193" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>537</v>
+      </c>
+      <c r="B194" t="s">
+        <v>538</v>
+      </c>
+      <c r="C194">
+        <v>314</v>
+      </c>
+      <c r="D194" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>540</v>
+      </c>
+      <c r="B195" t="s">
+        <v>541</v>
+      </c>
+      <c r="C195">
+        <v>314</v>
+      </c>
+      <c r="D195" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>543</v>
+      </c>
+      <c r="B196" t="s">
+        <v>545</v>
+      </c>
+      <c r="C196">
+        <v>315</v>
+      </c>
+      <c r="D196" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>546</v>
+      </c>
+      <c r="B197" t="s">
+        <v>547</v>
+      </c>
+      <c r="C197">
+        <v>315</v>
+      </c>
+      <c r="D197" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>549</v>
+      </c>
+      <c r="B198" t="s">
+        <v>550</v>
+      </c>
+      <c r="C198">
+        <v>316</v>
+      </c>
+      <c r="D198" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>552</v>
+      </c>
+      <c r="B199" t="s">
+        <v>553</v>
+      </c>
+      <c r="C199">
+        <v>316</v>
+      </c>
+      <c r="D199" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>555</v>
+      </c>
+      <c r="B200" t="s">
+        <v>556</v>
+      </c>
+      <c r="C200">
+        <v>317</v>
+      </c>
+      <c r="D200" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>558</v>
+      </c>
+      <c r="B201" t="s">
+        <v>559</v>
+      </c>
+      <c r="C201">
+        <v>320</v>
+      </c>
+      <c r="D201" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>561</v>
+      </c>
+      <c r="B202" t="s">
+        <v>562</v>
+      </c>
+      <c r="C202">
+        <v>321</v>
+      </c>
+      <c r="D202" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>564</v>
+      </c>
+      <c r="B203" t="s">
+        <v>565</v>
+      </c>
+      <c r="C203">
+        <v>325</v>
+      </c>
+      <c r="D203" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>567</v>
+      </c>
+      <c r="B204" t="s">
+        <v>568</v>
+      </c>
+      <c r="C204">
+        <v>325</v>
+      </c>
+      <c r="D204" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>570</v>
+      </c>
+      <c r="B205" t="s">
+        <v>571</v>
+      </c>
+      <c r="C205">
+        <v>329</v>
+      </c>
+      <c r="D205" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>573</v>
+      </c>
+      <c r="B206" t="s">
+        <v>574</v>
+      </c>
+      <c r="C206">
+        <v>329</v>
+      </c>
+      <c r="D206" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>576</v>
+      </c>
+      <c r="B207" t="s">
+        <v>577</v>
+      </c>
+      <c r="C207">
+        <v>330</v>
+      </c>
+      <c r="D207" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>579</v>
+      </c>
+      <c r="B208" t="s">
+        <v>580</v>
+      </c>
+      <c r="C208">
+        <v>332</v>
+      </c>
+      <c r="D208" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>582</v>
+      </c>
+      <c r="B209" t="s">
+        <v>583</v>
+      </c>
+      <c r="C209">
+        <v>333</v>
+      </c>
+      <c r="D209" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>585</v>
+      </c>
+      <c r="B210" t="s">
+        <v>586</v>
+      </c>
+      <c r="C210">
+        <v>334</v>
+      </c>
+      <c r="D210" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>588</v>
+      </c>
+      <c r="B211" t="s">
+        <v>589</v>
+      </c>
+      <c r="C211">
+        <v>334</v>
+      </c>
+      <c r="D211" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>591</v>
+      </c>
+      <c r="B212" t="s">
+        <v>592</v>
+      </c>
+      <c r="C212">
+        <v>336</v>
+      </c>
+      <c r="D212" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>594</v>
+      </c>
+      <c r="B213" t="s">
+        <v>595</v>
+      </c>
+      <c r="C213">
+        <v>337</v>
+      </c>
+      <c r="D213" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>597</v>
+      </c>
+      <c r="B214" t="s">
+        <v>598</v>
+      </c>
+      <c r="C214">
+        <v>338</v>
+      </c>
+      <c r="D214" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>600</v>
+      </c>
+      <c r="B215" t="s">
+        <v>601</v>
+      </c>
+      <c r="C215">
+        <v>338</v>
+      </c>
+      <c r="D215" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>603</v>
+      </c>
+      <c r="B216" t="s">
+        <v>604</v>
+      </c>
+      <c r="C216">
+        <v>339</v>
+      </c>
+      <c r="D216" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>606</v>
+      </c>
+      <c r="B217" t="s">
+        <v>607</v>
+      </c>
+      <c r="C217">
+        <v>340</v>
+      </c>
+      <c r="D217" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>609</v>
+      </c>
+      <c r="B218" t="s">
+        <v>610</v>
+      </c>
+      <c r="C218">
+        <v>340</v>
+      </c>
+      <c r="D218" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>612</v>
+      </c>
+      <c r="B219" t="s">
+        <v>613</v>
+      </c>
+      <c r="C219">
+        <v>342</v>
+      </c>
+      <c r="D219" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>615</v>
+      </c>
+      <c r="B220" t="s">
+        <v>616</v>
+      </c>
+      <c r="C220">
+        <v>348</v>
+      </c>
+      <c r="D220" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>618</v>
+      </c>
+      <c r="B221" t="s">
+        <v>619</v>
+      </c>
+      <c r="C221">
+        <v>349</v>
+      </c>
+      <c r="D221" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>621</v>
+      </c>
+      <c r="B222" t="s">
+        <v>622</v>
+      </c>
+      <c r="C222">
+        <v>349</v>
+      </c>
+      <c r="D222" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>624</v>
+      </c>
+      <c r="B223" t="s">
+        <v>625</v>
+      </c>
+      <c r="C223">
+        <v>349</v>
+      </c>
+      <c r="D223" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>627</v>
+      </c>
+      <c r="B224" t="s">
+        <v>628</v>
+      </c>
+      <c r="C224">
+        <v>350</v>
+      </c>
+      <c r="D224" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>630</v>
+      </c>
+      <c r="B225" t="s">
+        <v>631</v>
+      </c>
+      <c r="C225">
+        <v>352</v>
+      </c>
+      <c r="D225" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>633</v>
+      </c>
+      <c r="B226" t="s">
+        <v>634</v>
+      </c>
+      <c r="C226">
+        <v>352</v>
+      </c>
+      <c r="D226" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>636</v>
+      </c>
+      <c r="B227" t="s">
+        <v>637</v>
+      </c>
+      <c r="C227">
+        <v>353</v>
+      </c>
+      <c r="D227" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>639</v>
+      </c>
+      <c r="B228" t="s">
+        <v>640</v>
+      </c>
+      <c r="C228">
+        <v>355</v>
+      </c>
+      <c r="D228" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>215</v>
+      </c>
+      <c r="B229" t="s">
+        <v>216</v>
+      </c>
+      <c r="C229">
+        <v>355</v>
+      </c>
+      <c r="D229" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>643</v>
+      </c>
+      <c r="B230" t="s">
+        <v>644</v>
+      </c>
+      <c r="C230">
+        <v>365</v>
+      </c>
+      <c r="D230" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>646</v>
+      </c>
+      <c r="B231" t="s">
+        <v>647</v>
+      </c>
+      <c r="C231">
+        <v>366</v>
+      </c>
+      <c r="D231" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>649</v>
+      </c>
+      <c r="B232" t="s">
+        <v>650</v>
+      </c>
+      <c r="C232">
+        <v>371</v>
+      </c>
+      <c r="D232" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>652</v>
+      </c>
+      <c r="B233" t="s">
+        <v>653</v>
+      </c>
+      <c r="C233">
+        <v>372</v>
+      </c>
+      <c r="D233" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>655</v>
+      </c>
+      <c r="B234" t="s">
+        <v>656</v>
+      </c>
+      <c r="C234">
+        <v>372</v>
+      </c>
+      <c r="D234" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>658</v>
+      </c>
+      <c r="B235" t="s">
+        <v>659</v>
+      </c>
+      <c r="C235">
+        <v>374</v>
+      </c>
+      <c r="D235" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>661</v>
+      </c>
+      <c r="B236" t="s">
+        <v>662</v>
+      </c>
+      <c r="C236">
+        <v>375</v>
+      </c>
+      <c r="D236" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>664</v>
+      </c>
+      <c r="B237" t="s">
+        <v>665</v>
+      </c>
+      <c r="C237">
+        <v>375</v>
+      </c>
+      <c r="D237" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>667</v>
+      </c>
+      <c r="B238" t="s">
+        <v>668</v>
+      </c>
+      <c r="C238">
+        <v>375</v>
+      </c>
+      <c r="D238" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>671</v>
+      </c>
+      <c r="B239" t="s">
+        <v>670</v>
+      </c>
+      <c r="C239">
+        <v>376</v>
+      </c>
+      <c r="D239" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>673</v>
+      </c>
+      <c r="B240" t="s">
+        <v>674</v>
+      </c>
+      <c r="C240">
+        <v>378</v>
+      </c>
+      <c r="D240" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>676</v>
+      </c>
+      <c r="B241" t="s">
+        <v>677</v>
+      </c>
+      <c r="C241">
+        <v>381</v>
+      </c>
+      <c r="D241" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>679</v>
+      </c>
+      <c r="B242" t="s">
+        <v>680</v>
+      </c>
+      <c r="C242">
+        <v>381</v>
+      </c>
+      <c r="D242" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>682</v>
+      </c>
+      <c r="B243" t="s">
+        <v>683</v>
+      </c>
+      <c r="C243">
+        <v>385</v>
+      </c>
+      <c r="D243" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>685</v>
+      </c>
+      <c r="B244" t="s">
+        <v>686</v>
+      </c>
+      <c r="C244">
+        <v>385</v>
+      </c>
+      <c r="D244" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>687</v>
+      </c>
+      <c r="B245" t="s">
+        <v>688</v>
+      </c>
+      <c r="C245">
+        <v>387</v>
+      </c>
+      <c r="D245" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>690</v>
+      </c>
+      <c r="B246" t="s">
+        <v>691</v>
+      </c>
+      <c r="C246">
+        <v>389</v>
+      </c>
+      <c r="D246" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>693</v>
+      </c>
+      <c r="B247" t="s">
+        <v>694</v>
+      </c>
+      <c r="C247">
+        <v>395</v>
+      </c>
+      <c r="D247" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>696</v>
+      </c>
+      <c r="B248" t="s">
+        <v>697</v>
+      </c>
+      <c r="C248">
+        <v>395</v>
+      </c>
+      <c r="D248" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>699</v>
+      </c>
+      <c r="B249" t="s">
+        <v>484</v>
+      </c>
+      <c r="C249">
+        <v>395</v>
+      </c>
+      <c r="D249" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>701</v>
+      </c>
+      <c r="B250" t="s">
+        <v>702</v>
+      </c>
+      <c r="C250">
+        <v>396</v>
+      </c>
+      <c r="D250" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -3286,6 +6017,10 @@
     <hyperlink ref="B7" r:id="rId1"/>
     <hyperlink ref="B88" r:id="rId2"/>
     <hyperlink ref="B119" r:id="rId3"/>
+    <hyperlink ref="B131" r:id="rId4"/>
+    <hyperlink ref="B143" r:id="rId5"/>
+    <hyperlink ref="B158" r:id="rId6"/>
+    <hyperlink ref="B172" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
